--- a/PangkalanData/public/Template/Template Kerja Sama.xlsx
+++ b/PangkalanData/public/Template/Template Kerja Sama.xlsx
@@ -43,13 +43,13 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Ditandatanani Oleh (1)</t>
+    <t>Ditandatangani Oleh (1)</t>
   </si>
   <si>
     <t>Instansi (1)</t>
   </si>
   <si>
-    <t>Ditandatanani Oleh (2)</t>
+    <t>Ditandatangani Oleh (2)</t>
   </si>
   <si>
     <t>Instansi (2)</t>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -121,32 +121,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,21 +146,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +182,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -214,6 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -223,6 +215,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +304,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,121 +418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,21 +574,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +641,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,70 +692,70 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -764,64 +764,64 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/PangkalanData/public/Template/Template Kerja Sama.xlsx
+++ b/PangkalanData/public/Template/Template Kerja Sama.xlsx
@@ -93,11 +93,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,6 +128,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -136,16 +165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +196,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -182,39 +219,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,44 +259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,133 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,42 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +574,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,15 +613,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +637,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,148 +680,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1398,17 +1398,13 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="L3:L1048576;N3:N1048576">
-      <formula1>$A$21:$A$22</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D1:D2;L1:L2;N1:N2"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="L1:L2 N1:N2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D3:D1048576">
       <formula1>$A$17:$A$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Data" error="Harus sesuai format H/B/T&#10;&#10;" sqref="F1:F2;G1:G2"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Data" error="Harus sesuai format H/B/T&#10;&#10;" sqref="F3:F1048576;G3:G1048576">
-      <formula1>36892</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="L3:L1048576 N3:N1048576">
+      <formula1>$A$21:$A$22</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
